--- a/data/access_list_v6.xlsx
+++ b/data/access_list_v6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rstyczynski/projects/Crystal_IAM/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336BBD51-33F7-474D-B319-E20024DE54DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647AC76B-509B-1344-9BBF-596005367E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17620" xr2:uid="{5ED2B057-FD68-AB4C-A7D6-457A64BE5DA0}"/>
   </bookViews>
@@ -742,10 +742,10 @@
     <t>appgrp1:Storage</t>
   </si>
   <si>
-    <t>appgrp1 / Compute</t>
+    <t>appgrp1</t>
   </si>
   <si>
-    <t>tenancy</t>
+    <t>appgrp1 / Compute</t>
   </si>
 </sst>
 </file>
@@ -1462,7 +1462,7 @@
       <pane xSplit="2" ySplit="16" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
-      <selection pane="bottomRight" activeCell="C33" sqref="C33"/>
+      <selection pane="bottomRight" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelRow="2" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -2378,7 +2378,7 @@
         <v>Storage</v>
       </c>
       <c r="AQ12" s="50" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AR12" s="50"/>
       <c r="AS12" s="10" t="str">
@@ -4784,7 +4784,7 @@
       </c>
       <c r="B33" s="23"/>
       <c r="C33" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D33" s="25"/>
       <c r="E33" s="24"/>
@@ -8272,7 +8272,7 @@
     <row r="68" spans="1:85" ht="16" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C68" t="str">
         <f t="shared" ref="C68:D68" si="19">_xlfn.CONCAT(C15:C65)</f>
-        <v>tenancy</v>
+        <v>appgrp1</v>
       </c>
       <c r="D68" t="str">
         <f t="shared" si="19"/>
@@ -8609,7 +8609,7 @@
       </c>
       <c r="C69" t="str">
         <f>MID(C$68,$B69,1)</f>
-        <v>t</v>
+        <v>a</v>
       </c>
       <c r="D69" t="str">
         <f>MID(D$68,$B69,1)</f>
@@ -8946,7 +8946,7 @@
       </c>
       <c r="C70" t="str">
         <f t="shared" ref="C70:D85" si="30">MID(C$68,$B70,1)</f>
-        <v>e</v>
+        <v>p</v>
       </c>
       <c r="D70" t="str">
         <f t="shared" si="30"/>
@@ -9283,7 +9283,7 @@
       </c>
       <c r="C71" t="str">
         <f t="shared" si="30"/>
-        <v>n</v>
+        <v>p</v>
       </c>
       <c r="D71" t="str">
         <f t="shared" si="30"/>
@@ -9620,7 +9620,7 @@
       </c>
       <c r="C72" t="str">
         <f t="shared" si="30"/>
-        <v>a</v>
+        <v>g</v>
       </c>
       <c r="D72" t="str">
         <f t="shared" si="30"/>
@@ -9957,7 +9957,7 @@
       </c>
       <c r="C73" t="str">
         <f t="shared" si="30"/>
-        <v>n</v>
+        <v>r</v>
       </c>
       <c r="D73" t="str">
         <f t="shared" si="30"/>
@@ -10294,7 +10294,7 @@
       </c>
       <c r="C74" t="str">
         <f t="shared" si="30"/>
-        <v>c</v>
+        <v>p</v>
       </c>
       <c r="D74" t="str">
         <f t="shared" si="30"/>
@@ -10631,7 +10631,7 @@
       </c>
       <c r="C75" t="str">
         <f t="shared" si="30"/>
-        <v>y</v>
+        <v>1</v>
       </c>
       <c r="D75" t="str">
         <f t="shared" si="30"/>
@@ -55788,8 +55788,8 @@
         <v>1</v>
       </c>
       <c r="C209" s="33" t="str" cm="1">
-        <f t="array" ref="C209:C215">_xlfn.UNIQUE(C69:C208)</f>
-        <v>t</v>
+        <f t="array" ref="C209:C214">_xlfn.UNIQUE(C69:C208)</f>
+        <v>a</v>
       </c>
       <c r="D209" s="33" t="str" cm="1">
         <f t="array" ref="D209">_xlfn.UNIQUE(D69:D208)</f>
@@ -56125,7 +56125,7 @@
         <v>2</v>
       </c>
       <c r="C210" s="33" t="str">
-        <v>e</v>
+        <v>p</v>
       </c>
       <c r="E210" s="33" t="str">
         <v>M</v>
@@ -56313,7 +56313,7 @@
         <v>3</v>
       </c>
       <c r="C211" s="33" t="str">
-        <v>n</v>
+        <v>g</v>
       </c>
       <c r="E211" s="33" t="str">
         <v>I</v>
@@ -56483,7 +56483,7 @@
         <v>4</v>
       </c>
       <c r="C212" s="33" t="str">
-        <v>a</v>
+        <v>r</v>
       </c>
       <c r="E212" s="33" t="str">
         <v/>
@@ -56638,7 +56638,7 @@
         <v>5</v>
       </c>
       <c r="C213" s="33" t="str">
-        <v>c</v>
+        <v>1</v>
       </c>
       <c r="G213" s="33" t="str">
         <v>R</v>
@@ -56787,7 +56787,7 @@
         <v>6</v>
       </c>
       <c r="C214" s="33" t="str">
-        <v>y</v>
+        <v/>
       </c>
       <c r="G214" s="33" t="str">
         <v>U</v>
@@ -56935,9 +56935,6 @@
       <c r="B215" s="33">
         <v>7</v>
       </c>
-      <c r="C215" s="33" t="str">
-        <v/>
-      </c>
       <c r="G215" s="33" t="str">
         <v/>
       </c>
@@ -57028,7 +57025,7 @@
       </c>
       <c r="C217" s="34" t="str">
         <f t="shared" ref="C217:AD222" si="230">IF(ISNA(VLOOKUP($B217,C$209:C$215,1,FALSE)),$B217,"")</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="D217" s="34" t="str">
         <f t="shared" si="230"/>
@@ -57365,7 +57362,7 @@
       </c>
       <c r="C218" s="34" t="str">
         <f t="shared" si="230"/>
-        <v/>
+        <v>C</v>
       </c>
       <c r="D218" s="34" t="str">
         <f t="shared" si="230"/>
@@ -58376,7 +58373,7 @@
       </c>
       <c r="C221" s="34" t="str">
         <f t="shared" si="230"/>
-        <v>R</v>
+        <v/>
       </c>
       <c r="D221" s="34" t="str">
         <f t="shared" si="230"/>
@@ -59392,7 +59389,7 @@
       </c>
       <c r="C225" s="6" t="str">
         <f t="shared" ref="C225:D225" si="246">IF(C14&lt;&gt;"",IF(_xlfn.TEXTJOIN("",TRUE,C217:C224)="","(ok)",_xlfn.TEXTJOIN("",TRUE,C217:C224)),"")</f>
-        <v>PUORDM</v>
+        <v>CUODM</v>
       </c>
       <c r="D225" s="6" t="str">
         <f t="shared" si="246"/>

--- a/data/access_list_v6.xlsx
+++ b/data/access_list_v6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rstyczynski/projects/Crystal_IAM/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647AC76B-509B-1344-9BBF-596005367E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0440DBFE-2F59-8D45-B06A-8F8DDF94679F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17620" xr2:uid="{5ED2B057-FD68-AB4C-A7D6-457A64BE5DA0}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="229">
   <si>
     <t>OCI control plane privileges matrix</t>
   </si>
@@ -746,6 +746,9 @@
   </si>
   <si>
     <t>appgrp1 / Compute</t>
+  </si>
+  <si>
+    <t>U1</t>
   </si>
 </sst>
 </file>
@@ -1459,10 +1462,10 @@
   <dimension ref="A1:CG234"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="16" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="16" topLeftCell="AD26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
-      <selection pane="bottomRight" activeCell="C34" sqref="C34"/>
+      <selection pane="bottomRight" activeCell="AQ34" sqref="AQ34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelRow="2" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -4826,7 +4829,7 @@
       <c r="AO33" s="28"/>
       <c r="AP33" s="28"/>
       <c r="AQ33" s="27" t="s">
-        <v>10</v>
+        <v>228</v>
       </c>
       <c r="AR33" s="27" t="s">
         <v>10</v>
@@ -8432,7 +8435,7 @@
       </c>
       <c r="AQ68" t="str">
         <f t="shared" ref="AQ68:AS68" si="22">_xlfn.CONCAT(AQ15:AQ65)</f>
-        <v>UUCORIIPI</v>
+        <v>UU1CORIIPI</v>
       </c>
       <c r="AR68" t="str">
         <f t="shared" si="22"/>
@@ -9443,7 +9446,7 @@
       </c>
       <c r="AQ71" t="str">
         <f t="shared" si="27"/>
-        <v>C</v>
+        <v>1</v>
       </c>
       <c r="AR71" t="str">
         <f t="shared" si="27"/>
@@ -9780,7 +9783,7 @@
       </c>
       <c r="AQ72" t="str">
         <f t="shared" si="27"/>
-        <v>O</v>
+        <v>C</v>
       </c>
       <c r="AR72" t="str">
         <f t="shared" si="27"/>
@@ -10117,7 +10120,7 @@
       </c>
       <c r="AQ73" t="str">
         <f t="shared" si="27"/>
-        <v>R</v>
+        <v>O</v>
       </c>
       <c r="AR73" t="str">
         <f t="shared" si="27"/>
@@ -10454,7 +10457,7 @@
       </c>
       <c r="AQ74" t="str">
         <f t="shared" si="27"/>
-        <v>I</v>
+        <v>R</v>
       </c>
       <c r="AR74" t="str">
         <f t="shared" si="27"/>
@@ -11128,7 +11131,7 @@
       </c>
       <c r="AQ76" t="str">
         <f t="shared" si="42"/>
-        <v>P</v>
+        <v>I</v>
       </c>
       <c r="AR76" t="str">
         <f t="shared" si="42"/>
@@ -11465,7 +11468,7 @@
       </c>
       <c r="AQ77" t="str">
         <f t="shared" si="42"/>
-        <v>I</v>
+        <v>P</v>
       </c>
       <c r="AR77" t="str">
         <f t="shared" si="42"/>
@@ -11802,7 +11805,7 @@
       </c>
       <c r="AQ78" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>I</v>
       </c>
       <c r="AR78" t="str">
         <f t="shared" si="42"/>
@@ -55948,7 +55951,7 @@
         <v/>
       </c>
       <c r="AQ209" s="33" t="str" cm="1">
-        <f t="array" ref="AQ209:AQ215">_xlfn.UNIQUE(AQ69:AQ208)</f>
+        <f t="array" ref="AQ209:AQ216">_xlfn.UNIQUE(AQ69:AQ208)</f>
         <v>U</v>
       </c>
       <c r="AR209" s="33" t="str" cm="1">
@@ -56218,7 +56221,7 @@
         <v>C</v>
       </c>
       <c r="AQ210" s="33" t="str">
-        <v>C</v>
+        <v>1</v>
       </c>
       <c r="AR210" s="33" t="str">
         <v>C</v>
@@ -56406,7 +56409,7 @@
         <v>O</v>
       </c>
       <c r="AQ211" s="33" t="str">
-        <v>O</v>
+        <v>C</v>
       </c>
       <c r="AR211" s="33" t="str">
         <v>O</v>
@@ -56573,7 +56576,7 @@
         <v>R</v>
       </c>
       <c r="AQ212" s="33" t="str">
-        <v>R</v>
+        <v>O</v>
       </c>
       <c r="AR212" s="33" t="str">
         <v>R</v>
@@ -56722,7 +56725,7 @@
         <v>I</v>
       </c>
       <c r="AQ213" s="33" t="str">
-        <v>I</v>
+        <v>R</v>
       </c>
       <c r="AR213" s="33" t="str">
         <v>I</v>
@@ -56871,7 +56874,7 @@
         <v>P</v>
       </c>
       <c r="AQ214" s="33" t="str">
-        <v>P</v>
+        <v>I</v>
       </c>
       <c r="AR214" s="33" t="str">
         <v>P</v>
@@ -56984,7 +56987,7 @@
         <v/>
       </c>
       <c r="AQ215" s="33" t="str">
-        <v/>
+        <v>P</v>
       </c>
       <c r="AR215" s="33" t="str">
         <v/>
@@ -57017,6 +57020,9 @@
     <row r="216" spans="2:85" s="33" customFormat="1" ht="16" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="B216" s="33">
         <v>8</v>
+      </c>
+      <c r="AQ216" s="33" t="str">
+        <v/>
       </c>
     </row>
     <row r="217" spans="2:85" s="34" customFormat="1" ht="22" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">

--- a/data/access_list_v6.xlsx
+++ b/data/access_list_v6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rstyczynski/projects/Crystal_IAM/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0440DBFE-2F59-8D45-B06A-8F8DDF94679F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7918CAE5-C04C-6246-A343-EBCD78C73E55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17620" xr2:uid="{5ED2B057-FD68-AB4C-A7D6-457A64BE5DA0}"/>
   </bookViews>
@@ -353,9 +353,6 @@
   </si>
   <si>
     <t>iam_data_hall</t>
-  </si>
-  <si>
-    <t>Cost_Usage</t>
   </si>
   <si>
     <t>load balancer</t>
@@ -712,9 +709,6 @@
     <t>- budget_owner</t>
   </si>
   <si>
-    <t>(new- insert above)</t>
-  </si>
-  <si>
     <t>certificate authority</t>
   </si>
   <si>
@@ -749,6 +743,12 @@
   </si>
   <si>
     <t>U1</t>
+  </si>
+  <si>
+    <t>(new row? Always insert above this line)</t>
+  </si>
+  <si>
+    <t>Cost Usage</t>
   </si>
 </sst>
 </file>
@@ -1462,10 +1462,10 @@
   <dimension ref="A1:CG234"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="16" topLeftCell="AD26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="16" topLeftCell="AN61" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
-      <selection pane="bottomRight" activeCell="AQ34" sqref="AQ34"/>
+      <selection pane="bottomRight" activeCell="A225" sqref="A225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelRow="2" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="2" spans="1:85" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="45" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:85" ht="44" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1824,10 +1824,10 @@
     </row>
     <row r="7" spans="1:85" ht="22" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B7" s="49" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -1917,15 +1917,15 @@
     </row>
     <row r="8" spans="1:85" ht="22" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B8" s="49" t="s">
         <v>172</v>
-      </c>
-      <c r="B8" s="49" t="s">
-        <v>173</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
@@ -2296,7 +2296,7 @@
         <v>Team</v>
       </c>
       <c r="C12" s="48" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D12" s="10" t="str">
         <f>C12</f>
@@ -2381,7 +2381,7 @@
         <v>Storage</v>
       </c>
       <c r="AQ12" s="50" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AR12" s="50"/>
       <c r="AS12" s="10" t="str">
@@ -2389,7 +2389,7 @@
         <v>appgrp1 / Compute</v>
       </c>
       <c r="AT12" s="50" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AU12" s="50"/>
       <c r="AV12" s="10" t="str">
@@ -2397,7 +2397,7 @@
         <v>appgrp1:Systems / Compute</v>
       </c>
       <c r="AW12" s="50" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AX12" s="50"/>
       <c r="AY12" s="50"/>
@@ -2406,7 +2406,7 @@
         <v>appgrp1:Systems / Database</v>
       </c>
       <c r="BA12" s="50" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="BB12" s="50"/>
       <c r="BC12" s="50"/>
@@ -2812,7 +2812,7 @@
       <c r="A14" s="12"/>
       <c r="B14" s="13"/>
       <c r="C14" s="15" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D14" s="15"/>
       <c r="E14" s="14" t="s">
@@ -2822,13 +2822,13 @@
         <v>94</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H14" s="14" t="s">
         <v>35</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>97</v>
+        <v>228</v>
       </c>
       <c r="J14" s="14" t="s">
         <v>36</v>
@@ -2841,17 +2841,17 @@
       </c>
       <c r="M14" s="14"/>
       <c r="N14" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O14" s="15"/>
       <c r="P14" s="15" t="s">
         <v>96</v>
       </c>
       <c r="Q14" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="R14" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="S14" s="15" t="s">
         <v>95</v>
@@ -2874,7 +2874,7 @@
         <v>43</v>
       </c>
       <c r="AA14" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AB14" s="17" t="s">
         <v>44</v>
@@ -2897,7 +2897,7 @@
         <v>49</v>
       </c>
       <c r="AJ14" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK14" s="18"/>
       <c r="AL14" s="18" t="s">
@@ -2934,7 +2934,7 @@
         <v>49</v>
       </c>
       <c r="AY14" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AZ14" s="17"/>
       <c r="BA14" s="17" t="s">
@@ -2960,7 +2960,7 @@
         <v>55</v>
       </c>
       <c r="BI14" s="19" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="BJ14" s="19" t="s">
         <v>56</v>
@@ -2973,7 +2973,7 @@
         <v>58</v>
       </c>
       <c r="BN14" s="16" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="BO14" s="16" t="s">
         <v>59</v>
@@ -2982,13 +2982,13 @@
         <v>60</v>
       </c>
       <c r="BQ14" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BR14" s="16" t="s">
         <v>61</v>
       </c>
       <c r="BS14" s="16" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="BT14" s="16" t="s">
         <v>62</v>
@@ -3138,14 +3138,14 @@
     </row>
     <row r="16" spans="1:85" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.25">
       <c r="A16" s="47" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B16" s="23"/>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
       <c r="E16" s="24"/>
       <c r="F16" s="24" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G16" s="24"/>
       <c r="H16" s="24"/>
@@ -3235,7 +3235,7 @@
     </row>
     <row r="17" spans="1:85" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.25">
       <c r="A17" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B17" s="23"/>
       <c r="C17" s="25"/>
@@ -3338,7 +3338,7 @@
     </row>
     <row r="18" spans="1:85" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.25">
       <c r="A18" s="47" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B18" s="23"/>
       <c r="C18" s="25"/>
@@ -3427,7 +3427,7 @@
     </row>
     <row r="19" spans="1:85" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.25">
       <c r="A19" s="47" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B19" s="23"/>
       <c r="C19" s="25"/>
@@ -3444,14 +3444,14 @@
       <c r="N19" s="25"/>
       <c r="O19" s="25"/>
       <c r="P19" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Q19" s="25"/>
       <c r="R19" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="S19" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="T19" s="25"/>
       <c r="U19" s="26"/>
@@ -3530,33 +3530,33 @@
       <c r="E20" s="24"/>
       <c r="F20" s="24"/>
       <c r="G20" s="24" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H20" s="24" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I20" s="24" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J20" s="24" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K20" s="24"/>
       <c r="L20" s="24"/>
       <c r="M20" s="24"/>
       <c r="N20" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O20" s="25"/>
       <c r="P20" s="25"/>
       <c r="Q20" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="R20" s="25"/>
       <c r="S20" s="25"/>
       <c r="T20" s="25"/>
       <c r="U20" s="26" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V20" s="26"/>
       <c r="W20" s="27"/>
@@ -3827,7 +3827,7 @@
     </row>
     <row r="23" spans="1:85" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.25">
       <c r="A23" s="47" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B23" s="23"/>
       <c r="C23" s="25"/>
@@ -3930,7 +3930,7 @@
     </row>
     <row r="24" spans="1:85" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.25">
       <c r="A24" s="47" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B24" s="23"/>
       <c r="C24" s="25"/>
@@ -4021,7 +4021,7 @@
     </row>
     <row r="25" spans="1:85" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.25">
       <c r="A25" s="47" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B25" s="23"/>
       <c r="C25" s="25"/>
@@ -4116,7 +4116,7 @@
     </row>
     <row r="26" spans="1:85" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.25">
       <c r="A26" s="47" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B26" s="23"/>
       <c r="C26" s="25"/>
@@ -4219,7 +4219,7 @@
       <c r="I27" s="24"/>
       <c r="J27" s="24"/>
       <c r="K27" s="24" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L27" s="24" t="s">
         <v>10</v>
@@ -4330,7 +4330,7 @@
       <c r="W28" s="27"/>
       <c r="X28" s="27"/>
       <c r="Y28" s="27" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Z28" s="27"/>
       <c r="AA28" s="27"/>
@@ -4474,17 +4474,17 @@
       <c r="BX29" s="26"/>
       <c r="BY29" s="25"/>
       <c r="BZ29" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="CA29" s="25"/>
       <c r="CB29" s="24"/>
       <c r="CC29" s="24" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="CD29" s="24"/>
       <c r="CE29" s="30"/>
       <c r="CF29" s="30" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="CG29" s="30"/>
     </row>
@@ -4581,7 +4581,7 @@
     </row>
     <row r="31" spans="1:85" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B31" s="23"/>
       <c r="C31" s="25"/>
@@ -4670,7 +4670,7 @@
     </row>
     <row r="32" spans="1:85" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.25">
       <c r="A32" s="47" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B32" s="23"/>
       <c r="C32" s="25"/>
@@ -4783,11 +4783,11 @@
     </row>
     <row r="33" spans="1:85" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.25">
       <c r="A33" s="47" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B33" s="23"/>
       <c r="C33" s="25" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D33" s="25"/>
       <c r="E33" s="24"/>
@@ -4829,7 +4829,7 @@
       <c r="AO33" s="28"/>
       <c r="AP33" s="28"/>
       <c r="AQ33" s="27" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AR33" s="27" t="s">
         <v>10</v>
@@ -4888,7 +4888,7 @@
     </row>
     <row r="34" spans="1:85" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.25">
       <c r="A34" s="46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B34" s="23"/>
       <c r="C34" s="25"/>
@@ -4985,7 +4985,7 @@
     </row>
     <row r="35" spans="1:85" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.25">
       <c r="A35" s="47" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B35" s="23"/>
       <c r="C35" s="25"/>
@@ -5086,7 +5086,7 @@
     </row>
     <row r="36" spans="1:85" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.25">
       <c r="A36" s="47" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B36" s="23"/>
       <c r="C36" s="25"/>
@@ -5191,7 +5191,7 @@
     </row>
     <row r="37" spans="1:85" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.25">
       <c r="A37" s="47" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B37" s="23"/>
       <c r="C37" s="25"/>
@@ -5292,7 +5292,7 @@
     </row>
     <row r="38" spans="1:85" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.25">
       <c r="A38" s="47" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B38" s="23"/>
       <c r="C38" s="25"/>
@@ -5387,7 +5387,7 @@
     </row>
     <row r="39" spans="1:85" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.25">
       <c r="A39" s="47" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B39" s="23"/>
       <c r="C39" s="25"/>
@@ -5480,7 +5480,7 @@
     </row>
     <row r="40" spans="1:85" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.25">
       <c r="A40" s="47" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B40" s="23"/>
       <c r="C40" s="25"/>
@@ -5573,7 +5573,7 @@
     </row>
     <row r="41" spans="1:85" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.25">
       <c r="A41" s="46" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B41" s="23"/>
       <c r="C41" s="25"/>
@@ -5701,10 +5701,10 @@
       <c r="AF42" s="28"/>
       <c r="AG42" s="28"/>
       <c r="AH42" s="28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AI42" s="28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AJ42" s="28"/>
       <c r="AK42" s="28"/>
@@ -5720,10 +5720,10 @@
       <c r="AU42" s="27"/>
       <c r="AV42" s="27"/>
       <c r="AW42" s="27" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AX42" s="27" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AY42" s="27"/>
       <c r="AZ42" s="27"/>
@@ -5763,7 +5763,7 @@
     </row>
     <row r="43" spans="1:85" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.25">
       <c r="A43" s="47" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B43" s="23"/>
       <c r="C43" s="25"/>
@@ -5804,7 +5804,7 @@
       <c r="AH43" s="28"/>
       <c r="AI43" s="28"/>
       <c r="AJ43" s="28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AK43" s="28"/>
       <c r="AL43" s="28"/>
@@ -5821,7 +5821,7 @@
       <c r="AW43" s="27"/>
       <c r="AX43" s="27"/>
       <c r="AY43" s="27" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AZ43" s="27"/>
       <c r="BA43" s="27"/>
@@ -5860,7 +5860,7 @@
     </row>
     <row r="44" spans="1:85" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.25">
       <c r="A44" s="47" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B44" s="23"/>
       <c r="C44" s="25"/>
@@ -5896,10 +5896,10 @@
       <c r="AC44" s="27"/>
       <c r="AD44" s="27"/>
       <c r="AE44" s="28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AF44" s="28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AG44" s="28"/>
       <c r="AH44" s="28"/>
@@ -5918,17 +5918,17 @@
       <c r="AO44" s="28"/>
       <c r="AP44" s="28"/>
       <c r="AQ44" s="27" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AR44" s="27" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AS44" s="27"/>
       <c r="AT44" s="27" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AU44" s="27" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AV44" s="27"/>
       <c r="AW44" s="27"/>
@@ -6003,7 +6003,7 @@
       <c r="S45" s="25"/>
       <c r="T45" s="25"/>
       <c r="U45" s="26" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V45" s="26"/>
       <c r="W45" s="27"/>
@@ -6022,14 +6022,14 @@
       <c r="AJ45" s="28"/>
       <c r="AK45" s="28"/>
       <c r="AL45" s="28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AM45" s="28"/>
       <c r="AN45" s="28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AO45" s="28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AP45" s="28"/>
       <c r="AQ45" s="27"/>
@@ -6043,14 +6043,14 @@
       <c r="AY45" s="27"/>
       <c r="AZ45" s="27"/>
       <c r="BA45" s="27" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="BB45" s="27"/>
       <c r="BC45" s="27" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="BD45" s="27" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="BE45" s="27"/>
       <c r="BF45" s="29"/>
@@ -6128,7 +6128,7 @@
       <c r="AK46" s="28"/>
       <c r="AL46" s="28"/>
       <c r="AM46" s="28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AN46" s="28"/>
       <c r="AO46" s="28"/>
@@ -6145,7 +6145,7 @@
       <c r="AZ46" s="27"/>
       <c r="BA46" s="27"/>
       <c r="BB46" s="27" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="BC46" s="27"/>
       <c r="BD46" s="27"/>
@@ -6181,7 +6181,7 @@
     </row>
     <row r="47" spans="1:85" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.25">
       <c r="A47" s="47" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B47" s="23"/>
       <c r="C47" s="25"/>
@@ -6270,7 +6270,7 @@
     </row>
     <row r="48" spans="1:85" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.25">
       <c r="A48" s="47" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B48" s="23"/>
       <c r="C48" s="25"/>
@@ -6294,23 +6294,23 @@
       <c r="U48" s="26"/>
       <c r="V48" s="26"/>
       <c r="W48" s="27" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="X48" s="27" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Y48" s="27"/>
       <c r="Z48" s="27" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AA48" s="27" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AB48" s="27" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AC48" s="27" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AD48" s="27"/>
       <c r="AE48" s="28"/>
@@ -6449,7 +6449,7 @@
       <c r="BW49" s="26"/>
       <c r="BX49" s="26"/>
       <c r="BY49" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="BZ49" s="25"/>
       <c r="CA49" s="25"/>
@@ -6543,7 +6543,7 @@
       <c r="BZ50" s="25"/>
       <c r="CA50" s="25"/>
       <c r="CB50" s="24" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="CC50" s="24"/>
       <c r="CD50" s="24"/>
@@ -6553,7 +6553,7 @@
     </row>
     <row r="51" spans="1:85" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.25">
       <c r="A51" s="47" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B51" s="23"/>
       <c r="C51" s="25"/>
@@ -6637,14 +6637,14 @@
       <c r="CC51" s="24"/>
       <c r="CD51" s="24"/>
       <c r="CE51" s="30" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="CF51" s="30"/>
       <c r="CG51" s="30"/>
     </row>
     <row r="52" spans="1:85" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.25">
       <c r="A52" s="22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B52" s="23"/>
       <c r="C52" s="25"/>
@@ -6733,7 +6733,7 @@
     </row>
     <row r="53" spans="1:85" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.25">
       <c r="A53" s="47" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B53" s="23"/>
       <c r="C53" s="25"/>
@@ -6904,7 +6904,7 @@
     </row>
     <row r="54" spans="1:85" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.25">
       <c r="A54" s="47" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B54" s="23"/>
       <c r="C54" s="25"/>
@@ -6993,7 +6993,7 @@
     </row>
     <row r="55" spans="1:85" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.25">
       <c r="A55" s="47" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B55" s="23"/>
       <c r="C55" s="25"/>
@@ -7106,18 +7106,18 @@
       </c>
       <c r="BE55" s="27"/>
       <c r="BF55" s="29" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="BG55" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BH55" s="29" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="BI55" s="29"/>
       <c r="BJ55" s="29"/>
       <c r="BK55" s="29" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="BL55" s="29"/>
       <c r="BM55" s="26" t="s">
@@ -7164,7 +7164,7 @@
     </row>
     <row r="56" spans="1:85" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.25">
       <c r="A56" s="31" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B56" s="23"/>
       <c r="C56" s="25"/>
@@ -7253,7 +7253,7 @@
     </row>
     <row r="57" spans="1:85" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.25">
       <c r="A57" s="46" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B57" s="23"/>
       <c r="C57" s="25"/>
@@ -7396,7 +7396,7 @@
     </row>
     <row r="58" spans="1:85" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.25">
       <c r="A58" s="46" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B58" s="23"/>
       <c r="C58" s="25"/>
@@ -7555,7 +7555,7 @@
     </row>
     <row r="59" spans="1:85" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.25">
       <c r="A59" s="46" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B59" s="23"/>
       <c r="C59" s="25"/>
@@ -7648,7 +7648,7 @@
     </row>
     <row r="60" spans="1:85" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.25">
       <c r="A60" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B60" s="23"/>
       <c r="C60" s="25"/>
@@ -7830,7 +7830,7 @@
     </row>
     <row r="62" spans="1:85" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.25">
       <c r="A62" s="47" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B62" s="23"/>
       <c r="C62" s="25"/>
@@ -8014,7 +8014,7 @@
     </row>
     <row r="64" spans="1:85" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.25">
       <c r="A64" s="47" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B64" s="23"/>
       <c r="C64" s="25"/>
@@ -8117,7 +8117,7 @@
     </row>
     <row r="65" spans="1:85" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.25">
       <c r="A65" s="32" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="B65" s="23"/>
       <c r="C65" s="25"/>
@@ -58038,7 +58038,7 @@
     </row>
     <row r="220" spans="2:85" s="34" customFormat="1" ht="22" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="B220" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C220" s="34" t="str">
         <f t="shared" si="230"/>
@@ -58375,7 +58375,7 @@
     </row>
     <row r="221" spans="2:85" s="34" customFormat="1" ht="22" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="B221" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C221" s="34" t="str">
         <f t="shared" si="230"/>
@@ -59817,10 +59817,10 @@
         <v>33</v>
       </c>
       <c r="B1" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="40" t="s">
         <v>101</v>
-      </c>
-      <c r="C1" s="40" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -59828,10 +59828,10 @@
         <v>29</v>
       </c>
       <c r="B2" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="42" t="s">
         <v>103</v>
-      </c>
-      <c r="C2" s="42" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -59839,10 +59839,10 @@
         <v>29</v>
       </c>
       <c r="B3" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="42" t="s">
         <v>105</v>
-      </c>
-      <c r="C3" s="42" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -59850,10 +59850,10 @@
         <v>29</v>
       </c>
       <c r="B4" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="42" t="s">
         <v>107</v>
-      </c>
-      <c r="C4" s="42" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -59861,10 +59861,10 @@
         <v>29</v>
       </c>
       <c r="B5" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="42" t="s">
         <v>109</v>
-      </c>
-      <c r="C5" s="42" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -59872,10 +59872,10 @@
         <v>29</v>
       </c>
       <c r="B6" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="42" t="s">
         <v>111</v>
-      </c>
-      <c r="C6" s="42" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.25">
@@ -59883,10 +59883,10 @@
         <v>29</v>
       </c>
       <c r="B7" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="42" t="s">
         <v>113</v>
-      </c>
-      <c r="C7" s="42" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -59899,10 +59899,10 @@
         <v>33</v>
       </c>
       <c r="B9" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="40" t="s">
         <v>101</v>
-      </c>
-      <c r="C9" s="40" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -59910,10 +59910,10 @@
         <v>23</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -59921,10 +59921,10 @@
         <v>23</v>
       </c>
       <c r="B11" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" s="42" t="s">
         <v>116</v>
-      </c>
-      <c r="C11" s="42" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -59932,10 +59932,10 @@
         <v>23</v>
       </c>
       <c r="B12" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" s="42" t="s">
         <v>118</v>
-      </c>
-      <c r="C12" s="42" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -59943,10 +59943,10 @@
         <v>23</v>
       </c>
       <c r="B13" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" s="42" t="s">
         <v>120</v>
-      </c>
-      <c r="C13" s="42" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -59957,7 +59957,7 @@
         <v>35</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.25">
@@ -59968,7 +59968,7 @@
         <v>36</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -59976,10 +59976,10 @@
         <v>23</v>
       </c>
       <c r="B16" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" s="42" t="s">
         <v>124</v>
-      </c>
-      <c r="C16" s="42" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -59992,10 +59992,10 @@
         <v>33</v>
       </c>
       <c r="B18" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="40" t="s">
         <v>101</v>
-      </c>
-      <c r="C18" s="40" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -60003,10 +60003,10 @@
         <v>85</v>
       </c>
       <c r="B19" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="C19" s="42" t="s">
         <v>126</v>
-      </c>
-      <c r="C19" s="42" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -60014,10 +60014,10 @@
         <v>85</v>
       </c>
       <c r="B20" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="C20" s="42" t="s">
         <v>128</v>
-      </c>
-      <c r="C20" s="42" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -60025,10 +60025,10 @@
         <v>85</v>
       </c>
       <c r="B21" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="C21" s="42" t="s">
         <v>130</v>
-      </c>
-      <c r="C21" s="42" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.25">
@@ -60036,10 +60036,10 @@
         <v>85</v>
       </c>
       <c r="B22" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="C22" s="42" t="s">
         <v>132</v>
-      </c>
-      <c r="C22" s="42" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -60047,10 +60047,10 @@
         <v>85</v>
       </c>
       <c r="B23" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="C23" s="42" t="s">
         <v>134</v>
-      </c>
-      <c r="C23" s="42" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -60063,10 +60063,10 @@
         <v>33</v>
       </c>
       <c r="B25" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25" s="40" t="s">
         <v>101</v>
-      </c>
-      <c r="C25" s="40" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -60074,10 +60074,10 @@
         <v>27</v>
       </c>
       <c r="B26" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="C26" s="42" t="s">
         <v>136</v>
-      </c>
-      <c r="C26" s="42" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -60085,10 +60085,10 @@
         <v>27</v>
       </c>
       <c r="B27" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="C27" s="42" t="s">
         <v>138</v>
-      </c>
-      <c r="C27" s="42" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -60096,10 +60096,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="42" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C28" s="42" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -60112,10 +60112,10 @@
         <v>33</v>
       </c>
       <c r="B30" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" s="40" t="s">
         <v>101</v>
-      </c>
-      <c r="C30" s="40" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -60123,10 +60123,10 @@
         <v>24</v>
       </c>
       <c r="B31" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="C31" s="42" t="s">
         <v>141</v>
-      </c>
-      <c r="C31" s="42" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -60134,10 +60134,10 @@
         <v>24</v>
       </c>
       <c r="B32" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="C32" s="42" t="s">
         <v>143</v>
-      </c>
-      <c r="C32" s="42" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -60145,10 +60145,10 @@
         <v>24</v>
       </c>
       <c r="B33" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="C33" s="42" t="s">
         <v>145</v>
-      </c>
-      <c r="C33" s="42" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -60161,10 +60161,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" s="40" t="s">
         <v>101</v>
-      </c>
-      <c r="C35" s="40" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -60172,10 +60172,10 @@
         <v>83</v>
       </c>
       <c r="B36" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="C36" s="42" t="s">
         <v>147</v>
-      </c>
-      <c r="C36" s="42" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -60183,10 +60183,10 @@
         <v>83</v>
       </c>
       <c r="B37" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="C37" s="42" t="s">
         <v>149</v>
-      </c>
-      <c r="C37" s="42" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -60199,43 +60199,43 @@
         <v>33</v>
       </c>
       <c r="B39" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="C39" s="40" t="s">
         <v>101</v>
-      </c>
-      <c r="C39" s="40" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="36" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="41" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B40" s="42" t="s">
         <v>28</v>
       </c>
       <c r="C40" s="42" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="41" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B41" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="C41" s="42" t="s">
         <v>153</v>
-      </c>
-      <c r="C41" s="42" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="41" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B42" s="42" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C42" s="42" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -60248,10 +60248,10 @@
         <v>33</v>
       </c>
       <c r="B44" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="C44" s="40" t="s">
         <v>101</v>
-      </c>
-      <c r="C44" s="40" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -60259,10 +60259,10 @@
         <v>86</v>
       </c>
       <c r="B45" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="C45" s="42" t="s">
         <v>156</v>
-      </c>
-      <c r="C45" s="42" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -60270,10 +60270,10 @@
         <v>86</v>
       </c>
       <c r="B46" s="42" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C46" s="42" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -60281,10 +60281,10 @@
         <v>86</v>
       </c>
       <c r="B47" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="C47" s="42" t="s">
         <v>159</v>
-      </c>
-      <c r="C47" s="42" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -60292,10 +60292,10 @@
         <v>88</v>
       </c>
       <c r="B48" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="C48" s="42" t="s">
         <v>156</v>
-      </c>
-      <c r="C48" s="42" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -60303,10 +60303,10 @@
         <v>88</v>
       </c>
       <c r="B49" s="42" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C49" s="42" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -60314,10 +60314,10 @@
         <v>88</v>
       </c>
       <c r="B50" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="C50" s="42" t="s">
         <v>161</v>
-      </c>
-      <c r="C50" s="42" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -60330,43 +60330,43 @@
         <v>33</v>
       </c>
       <c r="B52" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="C52" s="40" t="s">
         <v>101</v>
-      </c>
-      <c r="C52" s="40" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="53" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="41" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B53" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="C53" s="42" t="s">
         <v>156</v>
-      </c>
-      <c r="C53" s="42" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="41" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B54" s="42" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C54" s="42" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="B55" s="42" t="s">
         <v>163</v>
       </c>
-      <c r="B55" s="42" t="s">
+      <c r="C55" s="42" t="s">
         <v>164</v>
-      </c>
-      <c r="C55" s="42" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -60379,10 +60379,10 @@
         <v>33</v>
       </c>
       <c r="B57" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="C57" s="40" t="s">
         <v>101</v>
-      </c>
-      <c r="C57" s="40" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -60390,21 +60390,21 @@
         <v>89</v>
       </c>
       <c r="B58" s="42" t="s">
+        <v>165</v>
+      </c>
+      <c r="C58" s="42" t="s">
         <v>166</v>
-      </c>
-      <c r="C58" s="42" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="B59" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="B59" s="42" t="s">
+      <c r="C59" s="42" t="s">
         <v>169</v>
-      </c>
-      <c r="C59" s="42" t="s">
-        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/data/access_list_v6.xlsx
+++ b/data/access_list_v6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rstyczynski/projects/Crystal_IAM/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7918CAE5-C04C-6246-A343-EBCD78C73E55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{869035DB-C414-CE47-8DA8-050EFC27A31B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17620" xr2:uid="{5ED2B057-FD68-AB4C-A7D6-457A64BE5DA0}"/>
   </bookViews>
@@ -1462,10 +1462,10 @@
   <dimension ref="A1:CG234"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="16" topLeftCell="AN61" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="14" topLeftCell="C59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
-      <selection pane="bottomRight" activeCell="A225" sqref="A225"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
+      <selection pane="bottomRight" activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelRow="2" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
